--- a/EMA/query and answer_30092024.xlsx
+++ b/EMA/query and answer_30092024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yumi\Documents\GitHub\OHE Internship\EMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1BCCA9-DFE4-4BB6-B82A-8854536287BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AEBED8-A7FB-49E9-BDCE-22146B776456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="599" xr2:uid="{5CE44C89-4CBE-4EB5-9A46-2FABBC3C3B2E}"/>
   </bookViews>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>Find the removed indication from HTML</t>
-  </si>
-  <si>
-    <t>Find the date for changed indication</t>
   </si>
   <si>
     <t>Review if there is similarity between the extracted full indication and the search result in NICE</t>
@@ -712,6 +709,9 @@
   </si>
   <si>
     <t>*need to be double-checked by medicine tracker team</t>
+  </si>
+  <si>
+    <t>Find the date for changed indication from PDF</t>
   </si>
 </sst>
 </file>
@@ -1199,8 +1199,8 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1211,7 +1211,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1">
         <v>17</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3">
         <f>B1-B2</f>
@@ -1236,21 +1236,21 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" t="s">
         <v>166</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>167</v>
       </c>
-      <c r="C6" t="s">
-        <v>168</v>
-      </c>
       <c r="D6" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1271,24 +1271,24 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" t="s">
         <v>166</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>167</v>
       </c>
-      <c r="C10" t="s">
-        <v>168</v>
-      </c>
       <c r="D10" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1309,21 +1309,21 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" t="s">
         <v>166</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>167</v>
       </c>
-      <c r="C14" t="s">
-        <v>168</v>
-      </c>
       <c r="D14" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1344,24 +1344,24 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" t="s">
         <v>166</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>167</v>
       </c>
-      <c r="C18" t="s">
-        <v>168</v>
-      </c>
       <c r="D18" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1387,16 +1387,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" t="s">
         <v>166</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>167</v>
       </c>
-      <c r="C22" t="s">
-        <v>168</v>
-      </c>
       <c r="D22" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1422,16 +1422,16 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" t="s">
         <v>166</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>167</v>
       </c>
-      <c r="C26" t="s">
-        <v>168</v>
-      </c>
       <c r="D26" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1455,21 +1455,21 @@
         <v>18</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" t="s">
         <v>166</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>167</v>
       </c>
-      <c r="C30" t="s">
-        <v>168</v>
-      </c>
       <c r="D30" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1493,21 +1493,21 @@
         <v>19</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" t="s">
         <v>166</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>167</v>
       </c>
-      <c r="C34" t="s">
-        <v>168</v>
-      </c>
       <c r="D34" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1535,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FBE756-62AE-4D32-BD99-6759DDF03EEB}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D7:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1642,7 +1642,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>15</v>
@@ -1656,13 +1656,13 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1673,13 +1673,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1690,13 +1690,13 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="H9" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1725,19 +1725,19 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8" t="s">
@@ -1752,867 +1752,867 @@
         <v>18</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>19</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="C2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="E2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="G2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="I2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="K2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="M2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>112</v>
-      </c>
       <c r="O2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>72</v>
-      </c>
       <c r="P3" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="N4" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="P4" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="M5" s="12" t="s">
+      <c r="N5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="P5" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="F8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>132</v>
-      </c>
       <c r="I8" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>135</v>
-      </c>
       <c r="I9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="F10" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="9" t="s">
+      <c r="L10" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="M10" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P10" s="10"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="F11" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="I11" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J11" s="13">
         <v>45471</v>
       </c>
       <c r="K11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="M11" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="H12" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P12" s="10"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="9" t="s">
+      <c r="L13" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="M13" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="L13" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="M13" s="10" t="s">
+      <c r="N13" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="O13" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="P13" s="10"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>57</v>
-      </c>
       <c r="F14" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J14" s="13">
         <v>45554</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P14" s="10"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J15" s="13">
         <v>45533</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P15" s="10"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>61</v>
-      </c>
       <c r="F16" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" s="9" t="s">
+      <c r="L16" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="L16" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="M16" s="10" t="s">
+      <c r="N16" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="O16" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="N16" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="P16" s="10"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="F17" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="M17" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P17" s="10"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="F18" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I18" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="9" t="s">
+      <c r="L18" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="M18" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="I19" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J19" s="13">
         <v>44126</v>
       </c>
       <c r="K19" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P19" s="10"/>
     </row>
